--- a/n30full.xlsx
+++ b/n30full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\Cuarto\Semestre 8\IPRE\IPRE-IRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pato2\Desktop\U\2023-2\IPRE-IRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76F8FECE-D753-4A67-8FC7-65AB5B7A53DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266534D-6E64-484E-92C5-A6548CBFB0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRL" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -218,6 +218,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,12 +530,12 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>31</v>
       </c>
@@ -572,17 +573,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -602,7 +603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -635,18 +636,19 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D32"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -672,7 +674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -698,7 +700,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -718,14 +720,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>40</v>
+      <c r="G3" s="3">
+        <v>26.666666666666668</v>
       </c>
       <c r="H3">
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -745,14 +747,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>24</v>
+      <c r="G4" s="3">
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0.41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -772,14 +774,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>60</v>
       </c>
       <c r="H5">
         <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -799,14 +801,14 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>77</v>
+      <c r="G6" s="3">
+        <v>51.333333333333336</v>
       </c>
       <c r="H6">
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -826,14 +828,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>62</v>
       </c>
       <c r="H7">
         <v>0.48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -853,14 +855,14 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>41</v>
       </c>
       <c r="H8">
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -880,14 +882,14 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>64</v>
       </c>
       <c r="H9">
         <v>0.48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -907,14 +909,14 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>56</v>
+      <c r="G10" s="3">
+        <v>37.333333333333336</v>
       </c>
       <c r="H10">
         <v>0.49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -934,14 +936,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>16</v>
+      <c r="G11" s="3">
+        <v>10.666666666666666</v>
       </c>
       <c r="H11">
         <v>0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -961,14 +963,14 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>36</v>
+      <c r="G12" s="3">
+        <v>24</v>
       </c>
       <c r="H12">
         <v>0.17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -988,14 +990,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>44</v>
+      <c r="G13" s="3">
+        <v>29.333333333333332</v>
       </c>
       <c r="H13">
         <v>0.49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1015,14 +1017,14 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>98</v>
       </c>
       <c r="H14">
         <v>0.32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1042,14 +1044,14 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>43</v>
       </c>
       <c r="H15">
         <v>0.39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1069,14 +1071,14 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>42</v>
       </c>
       <c r="H16">
         <v>0.37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1096,14 +1098,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>35</v>
       </c>
       <c r="H17">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1123,14 +1125,14 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>55</v>
+      <c r="G18" s="3">
+        <v>36.666666666666664</v>
       </c>
       <c r="H18">
         <v>0.32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1150,14 +1152,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>79</v>
       </c>
       <c r="H19">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1177,14 +1179,14 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>82</v>
       </c>
       <c r="H20">
         <v>0.17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1204,14 +1206,14 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>46</v>
+      <c r="G21" s="3">
+        <v>30.666666666666668</v>
       </c>
       <c r="H21">
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1231,14 +1233,14 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>24</v>
       </c>
       <c r="H22">
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1258,14 +1260,14 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>49</v>
       </c>
       <c r="H23">
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1285,14 +1287,14 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>18</v>
       </c>
       <c r="H24">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1312,14 +1314,14 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>32</v>
       </c>
       <c r="H25">
         <v>0.31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1339,14 +1341,14 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
-        <v>64</v>
+      <c r="G26" s="3">
+        <v>42.666666666666664</v>
       </c>
       <c r="H26">
         <v>0.22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1366,14 +1368,14 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27">
-        <v>48</v>
+      <c r="G27" s="3">
+        <v>32</v>
       </c>
       <c r="H27">
         <v>0.24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1393,14 +1395,14 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>28</v>
       </c>
       <c r="H28">
         <v>0.34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1420,14 +1422,14 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>14</v>
+      <c r="G29" s="3">
+        <v>9.3333333333333339</v>
       </c>
       <c r="H29">
         <v>0.38</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1447,14 +1449,14 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>37</v>
+      <c r="G30" s="3">
+        <v>24.666666666666668</v>
       </c>
       <c r="H30">
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1474,14 +1476,14 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>98</v>
+      <c r="G31" s="3">
+        <v>65.333333333333329</v>
       </c>
       <c r="H31">
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1501,8 +1503,8 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <v>96</v>
+      <c r="G32" s="3">
+        <v>64</v>
       </c>
       <c r="H32">
         <v>0.31</v>
@@ -1524,13 +1526,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1562,7 +1564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1626,7 +1628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1650,7 +1652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
